--- a/class70/contacts.xlsx
+++ b/class70/contacts.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="6345" windowHeight="2175"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="6345" windowHeight="2115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="teacher" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve">罗雨泉 </t>
   </si>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15182059545</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13975387189</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,78 +251,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>骚味浓厚的屠夫</t>
+  </si>
+  <si>
+    <t>红极一时的花鼓刀马旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡思乱想的程序员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13617418286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13667435036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗鹏举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅得一塌糊涂的文艺工作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八面玲珑的衣服零售商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滋润的手机销售商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威猛雄壮的老司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娘子，上菜～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王正良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13762335922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18073305122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15907330959</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟海林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万昭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄枚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13789091588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18182059545</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13272119530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13077039638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13873391965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15697667166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我想这么标榜自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骚味浓厚的屠夫</t>
-  </si>
-  <si>
-    <t>红极一时的花鼓刀马旦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘永</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡思乱想的程序员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13617418286</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13667435036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗鹏举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帅得一塌糊涂的文艺工作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八面玲珑的衣服零售商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滋润的手机销售商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威猛雄壮的老司机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娘子，上菜～</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王正良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13762335922</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18073305122</t>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘志坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐建平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王友林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯翠娥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王要平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈大晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏志毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万国振</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +459,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -400,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,6 +496,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -709,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -730,452 +821,513 @@
         <v>13317339062</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>13873384820</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15570785350</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>15570785350</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>15073331863</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>18607332736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1">
-        <v>18273272909</v>
-      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>13786330652</v>
+        <v>18607332736</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
-        <v>13037339521</v>
-      </c>
+        <v>18273272909</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
-        <v>15573372529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>13786330652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3">
-        <v>15575116358</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
+        <v>13037339521</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>15573372529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15575116358</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6">
-        <v>15817202312</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
+      <c r="A17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>13873317046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3">
-        <v>15886396278</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
+        <v>15817202312</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>13874105042</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
+        <v>13873317046</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>15886396278</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13874105042</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25"/>
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3">
-        <v>13973377512</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3">
+        <v>13973377512</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B31" s="3">
         <v>15873365093</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="C31" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="B32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B33" s="3">
         <v>15507313898</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3">
-        <v>13087330876</v>
-      </c>
-      <c r="C35"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="3">
-        <v>15873301115</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="3">
-        <v>15173110067</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="3">
-        <v>15570722896</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3">
+        <v>13087330876</v>
+      </c>
+      <c r="C39"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3">
-        <v>15073380827</v>
+        <v>15873301115</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>27</v>
+      </c>
+      <c r="B41" s="3">
+        <v>15173110067</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
+      <c r="A42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="3">
+        <v>15570722896</v>
+      </c>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="3">
-        <v>15386231041</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B44" s="3">
-        <v>13467331937</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>15073380827</v>
+      </c>
+      <c r="C44"/>
     </row>
     <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="3">
-        <v>18673327779</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="3">
-        <v>15073305735</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B47" s="3">
-        <v>15013676160</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>66</v>
+        <v>15386231041</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B48" s="3">
-        <v>13357203692</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>83</v>
+        <v>13467331937</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="3">
+        <v>18673327779</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3">
+        <v>15073305735</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="3">
+        <v>15013676160</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="3">
+        <v>13357203692</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B53" s="3">
         <v>13667434209</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="C53" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C50">
-    <sortCondition ref="A16"/>
+  <sortState ref="A2:C55">
+    <sortCondition ref="A31"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,137 +1337,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3">
-        <v>13317339062</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3">
-        <v>13873384820</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>15575116358</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>13973377512</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3">
-        <v>15873365093</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>15873301115</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3">
-        <v>15173110067</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3">
-        <v>18673327779</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>15073305735</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3">
-        <v>15013676160</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>18273360816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>15367925722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>18974119633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/class70/contacts.xlsx
+++ b/class70/contacts.xlsx
@@ -398,15 +398,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>田斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夏志毅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>万国振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>18273360816</v>
@@ -1369,6 +1369,9 @@
       <c r="A3" t="s">
         <v>98</v>
       </c>
+      <c r="B3">
+        <v>15873338161</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1382,6 +1385,9 @@
       <c r="A5" t="s">
         <v>100</v>
       </c>
+      <c r="B5">
+        <v>13337334566</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -1395,6 +1401,9 @@
       <c r="A7" t="s">
         <v>102</v>
       </c>
+      <c r="B7">
+        <v>13037330613</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1403,17 +1412,26 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>18907337711</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>104</v>
       </c>
+      <c r="B10">
+        <v>13077088869</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="B11">
+        <v>13037338887</v>
       </c>
     </row>
   </sheetData>
